--- a/data/supersite_area_HD_SD_DRAFT_20240121.xlsx
+++ b/data/supersite_area_HD_SD_DRAFT_20240121.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/blueT7/bcdp/data/supersiteDB/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7679F93-E2BF-9642-A40E-82CA1DE0C090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFF2D3F-39D5-C34F-AB2B-1FB4F91C6391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="18800" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Areas, SD, HD at Supersite" sheetId="1" r:id="rId1"/>
@@ -378,10 +378,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1191,73 +1197,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="52.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="68.33203125" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>49</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1270,51 +1282,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="52.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="67" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="96" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>99</v>
       </c>
     </row>
